--- a/excel/src/main/excel/import_/激活模板.xlsx
+++ b/excel/src/main/excel/import_/激活模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shifengqiang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shifengqiang/projects/codeLib/excel/src/main/excel/import_/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,45 +26,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <r>
-      <t>account_id
-8位那个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(必填)</t>
-    </r>
+    <t>用户 id</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pho_num
-手机号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(必填)</t>
-    </r>
+    <t>手机号</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,21 +57,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -420,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,7 +401,7 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +439,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>